--- a/downloaded_files/CMPS302_Tutorial-35563.xlsx
+++ b/downloaded_files/CMPS302_Tutorial-35563.xlsx
@@ -1209,7 +1209,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.6641871528</x:v>
+        <x:v>45927.4167707176</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1529,7 +1529,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45909.4379437153</x:v>
+        <x:v>45927.4190604514</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>

--- a/downloaded_files/CMPS302_Tutorial-35563.xlsx
+++ b/downloaded_files/CMPS302_Tutorial-35563.xlsx
@@ -1529,7 +1529,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45927.4190604514</x:v>
+        <x:v>45928.9618944444</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>

--- a/downloaded_files/CMPS302_Tutorial-35563.xlsx
+++ b/downloaded_files/CMPS302_Tutorial-35563.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -94,6 +94,15 @@
   </x:si>
   <x:si>
     <x:t>George Ayman Girgis</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220119</x:t>
+  </x:si>
+  <x:si>
+    <x:t>جوليا عماد مكين كامل جورجى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Julia Emad Makin Kamel Georgy</x:t>
   </x:si>
   <x:si>
     <x:t>1220011</x:t>
@@ -434,7 +443,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E33" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E34" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -734,7 +743,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T33"/>
+  <x:dimension ref="A1:T34"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1049,7 +1058,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45906.6646794792</x:v>
+        <x:v>45906.6651274306</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1081,7 +1090,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.419656169</x:v>
+        <x:v>45906.6646794792</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1113,7 +1122,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45912.3145997685</x:v>
+        <x:v>45907.419656169</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1145,7 +1154,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45906.6644298958</x:v>
+        <x:v>45912.3145997685</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1177,7 +1186,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45912.3149890394</x:v>
+        <x:v>45906.6644298958</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1209,7 +1218,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45927.4167707176</x:v>
+        <x:v>45912.3149890394</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1241,7 +1250,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45909.4149353009</x:v>
+        <x:v>45927.4167707176</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1273,7 +1282,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45912.3149107986</x:v>
+        <x:v>45909.4149353009</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1305,7 +1314,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.6657920949</x:v>
+        <x:v>45912.3149107986</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1337,7 +1346,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.6677925579</x:v>
+        <x:v>45906.6657920949</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1369,7 +1378,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45909.5936638079</x:v>
+        <x:v>45906.6677925579</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1401,7 +1410,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.8798826389</x:v>
+        <x:v>45909.5936638079</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1433,7 +1442,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45909.4150503819</x:v>
+        <x:v>45906.8798826389</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1465,7 +1474,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45912.3151554051</x:v>
+        <x:v>45909.4150503819</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1497,7 +1506,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45914.0324684375</x:v>
+        <x:v>45912.3151554051</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1529,7 +1538,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45928.9618944444</x:v>
+        <x:v>45914.0324684375</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1561,7 +1570,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45916.022353588</x:v>
+        <x:v>45928.9618944444</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1593,7 +1602,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45906.6647133102</x:v>
+        <x:v>45916.022353588</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1625,7 +1634,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45906.6650957523</x:v>
+        <x:v>45906.6647133102</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1657,7 +1666,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45906.6702806713</x:v>
+        <x:v>45906.6650957523</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1689,7 +1698,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.4180325232</x:v>
+        <x:v>45906.6702806713</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1721,7 +1730,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45906.6650695255</x:v>
+        <x:v>45907.4180325232</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1753,7 +1762,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45906.6641302431</x:v>
+        <x:v>45906.6650695255</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1785,7 +1794,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45906.6647510069</x:v>
+        <x:v>45906.6641302431</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1817,7 +1826,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45913.7128293171</x:v>
+        <x:v>45906.6647510069</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1834,6 +1843,38 @@
       <x:c r="R33" s="2" t="s"/>
       <x:c r="S33" s="2" t="s"/>
       <x:c r="T33" s="2" t="s"/>
+    </x:row>
+    <x:row r="34" spans="1:20">
+      <x:c r="A34" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B34" s="2" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="C34" s="2" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="D34" s="2" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="E34" s="3">
+        <x:v>45913.7128293171</x:v>
+      </x:c>
+      <x:c r="F34" s="2" t="s"/>
+      <x:c r="G34" s="2" t="s"/>
+      <x:c r="H34" s="2" t="s"/>
+      <x:c r="I34" s="2" t="s"/>
+      <x:c r="J34" s="2" t="s"/>
+      <x:c r="K34" s="2" t="s"/>
+      <x:c r="L34" s="2" t="s"/>
+      <x:c r="M34" s="2" t="s"/>
+      <x:c r="N34" s="2" t="s"/>
+      <x:c r="O34" s="2" t="s"/>
+      <x:c r="P34" s="2" t="s"/>
+      <x:c r="Q34" s="2" t="s"/>
+      <x:c r="R34" s="2" t="s"/>
+      <x:c r="S34" s="2" t="s"/>
+      <x:c r="T34" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS302_Tutorial-35563.xlsx
+++ b/downloaded_files/CMPS302_Tutorial-35563.xlsx
@@ -39,7 +39,7 @@
     <x:t>احمد محمد فاروق محمد</x:t>
   </x:si>
   <x:si>
-    <x:t>ahmed mohamed farouk mohamed mohamed soltan</x:t>
+    <x:t xml:space="preserve">Ahmed Mohamed Farouk Mohamed  </x:t>
   </x:si>
   <x:si>
     <x:t>1210405</x:t>
@@ -66,7 +66,7 @@
     <x:t>احمد يحى سعد السيد نافع</x:t>
   </x:si>
   <x:si>
-    <x:t>Ahmed Yehya Saad Nafea</x:t>
+    <x:t>Ahmed Yehya Saad Elsayed Nafea</x:t>
   </x:si>
   <x:si>
     <x:t>1220165</x:t>

--- a/downloaded_files/CMPS302_Tutorial-35563.xlsx
+++ b/downloaded_files/CMPS302_Tutorial-35563.xlsx
@@ -129,7 +129,7 @@
     <x:t>عبدالرحمن سامح عبد العظيم محمد على</x:t>
   </x:si>
   <x:si>
-    <x:t>abdelrahman sameh abdelazeem</x:t>
+    <x:t>ABDELRAHMAN SAMEH ABDELAZEEM MOHAMED ALY</x:t>
   </x:si>
   <x:si>
     <x:t>1220182</x:t>
@@ -210,7 +210,7 @@
     <x:t>محمد احمد محمود احمد</x:t>
   </x:si>
   <x:si>
-    <x:t>Mohammed Ahmed Mahmoud Alatar</x:t>
+    <x:t>Mohammed Ahmed Mahmoud Ahmed</x:t>
   </x:si>
   <x:si>
     <x:t>1220020</x:t>
@@ -273,7 +273,7 @@
     <x:t>نور محمد السيد عبدالله خليل طنطاوي</x:t>
   </x:si>
   <x:si>
-    <x:t>NOOR MOHAMED ELSAYED ABDALLAH KHALIL TANTAWY</x:t>
+    <x:t>Noor Mohamed Elsayed Abdallah Khalil Tantawy</x:t>
   </x:si>
   <x:si>
     <x:t>1220289</x:t>

--- a/downloaded_files/CMPS302_Tutorial-35563.xlsx
+++ b/downloaded_files/CMPS302_Tutorial-35563.xlsx
@@ -120,7 +120,7 @@
     <x:t>عبدالرحمن احمد محمد صلاح الدين علي رجب</x:t>
   </x:si>
   <x:si>
-    <x:t>AbdelRahman Ahmed Mohamed Salah Eldin Ali</x:t>
+    <x:t>AbdelRahman Ahmed Mohamed Salah Eldin Ali Rajab</x:t>
   </x:si>
   <x:si>
     <x:t>1220111</x:t>
@@ -246,7 +246,7 @@
     <x:t>محمد عمرو ابراهيم المصري</x:t>
   </x:si>
   <x:si>
-    <x:t>mohamed amr ebrahim elmasry</x:t>
+    <x:t>Mohamed Amr Ibrahim Elmasry</x:t>
   </x:si>
   <x:si>
     <x:t>1210416</x:t>

--- a/downloaded_files/CMPS302_Tutorial-35563.xlsx
+++ b/downloaded_files/CMPS302_Tutorial-35563.xlsx
@@ -48,7 +48,7 @@
     <x:t>احمد محمد محمود محمد</x:t>
   </x:si>
   <x:si>
-    <x:t>Ahmed Mohammed Mahmoud Mohammed</x:t>
+    <x:t>Ahmed Mohamed Mahmoud Mohamed</x:t>
   </x:si>
   <x:si>
     <x:t>1220003</x:t>
@@ -165,7 +165,7 @@
     <x:t>عبدالله محمد عبدالحميد صبحى المهدى</x:t>
   </x:si>
   <x:si>
-    <x:t>Abdallah Mohamed ElMahdy</x:t>
+    <x:t>Abdallah Mohamed AbdelHameed Sobhy ElMahdy</x:t>
   </x:si>
   <x:si>
     <x:t>1220309</x:t>
@@ -174,7 +174,7 @@
     <x:t>عمرو اشرف على محمود حسن</x:t>
   </x:si>
   <x:si>
-    <x:t>AmrAshrafAli</x:t>
+    <x:t>Amr Ashraf Ali Mahmoud Hassan</x:t>
   </x:si>
   <x:si>
     <x:t>4230161</x:t>
@@ -255,7 +255,7 @@
     <x:t>محمد ممدوح سيد محمد السمرى</x:t>
   </x:si>
   <x:si>
-    <x:t>Mohamed Mamdouh Sayed Mohamed</x:t>
+    <x:t>Mohamed Mamdouh Sayed Mohamed Elsemary</x:t>
   </x:si>
   <x:si>
     <x:t>1220205</x:t>
